--- a/biology/Histoire de la zoologie et de la botanique/José_Castulo_Zeledón/José_Castulo_Zeledón.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/José_Castulo_Zeledón/José_Castulo_Zeledón.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Castulo_Zeled%C3%B3n</t>
+          <t>José_Castulo_Zeledón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">José Castulo Zeledón est un ornithologue costaricien, né le 24 mars 1846 dans la région de San José (Costa Rica) et mort le 16 juillet 1923 à Turin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Castulo_Zeled%C3%B3n</t>
+          <t>José_Castulo_Zeledón</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Don Manuel Zeledón, gouverneur de la province de San José. Le jeune Zeledón s’intéresse très tôt aux oiseaux. Il découvre et apprend l’ornithologie auprès du médecin et naturaliste allemand Alexander von Frantzius (1821-1877) qui tient une pharmacie à San José. Zeledón travaille pour lui et récolte des oiseaux qu’il fait parvenir à Jean Louis Cabanis (1816-1906) du musée de zoologie de Berlin (l'actuel musée d'histoire naturelle de Berlin).
 En 1868, A. von Frantzius retourne en Allemagne. Zeledón part à Washington où il rencontre Spencer Fullerton Baird (1823-1887). Il devient assistant à la Smithsonian Institution. Il se lie d’amitié avec Robert Ridgway (1850-1929). En 1872, Zeledón retourne au Costa Rica pour participer comme zoologiste à une expédition conduite par William More Gabb (1839-1878). Zeledón réalise alors la première collection d’oiseaux de la Cordillère de Talamanca.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jos%C3%A9_Castulo_Zeled%C3%B3n</t>
+          <t>José_Castulo_Zeledón</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article de langue anglaise de Wikipédia (version du 10 octobre 2006).
  Portail de l’histoire de la zoologie et de la botanique   Portail de l'ornithologie   Portail du Costa Rica                   </t>
